--- a/jyx2/excel/JYX2场景.xlsx
+++ b/jyx2/excel/JYX2场景.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYCG\SVN\trunk\jyx2\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7EE1E-8488-4D95-8FA2-22EF17FCCC3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -158,9 +157,6 @@
   </si>
   <si>
     <t>金蛇山洞</t>
-  </si>
-  <si>
-    <t>閰基居</t>
   </si>
   <si>
     <t>擂鼓山</t>
@@ -367,12 +363,16 @@
     <t>圣堂</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>阎基居</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -399,6 +399,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -436,19 +443,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -791,16 +799,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B64" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +898,7 @@
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -980,12 +988,12 @@
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>19</v>
@@ -1070,12 +1078,12 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>19</v>
@@ -1160,12 +1168,12 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>19</v>
@@ -1250,12 +1258,12 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -1340,7 +1348,7 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1430,7 +1438,7 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1520,7 +1528,7 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1610,12 +1618,12 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1700,12 +1708,12 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1790,7 +1798,7 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1880,12 +1888,12 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1970,7 +1978,7 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2060,7 +2068,7 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2150,12 +2158,12 @@
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1">
         <v>16</v>
@@ -2240,12 +2248,12 @@
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -2330,12 +2338,12 @@
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -2420,7 +2428,7 @@
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2510,7 +2518,7 @@
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2600,12 +2608,12 @@
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -2690,7 +2698,7 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2780,12 +2788,12 @@
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1">
         <v>16</v>
@@ -2870,12 +2878,12 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1">
         <v>16</v>
@@ -2960,7 +2968,7 @@
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3050,12 +3058,12 @@
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1">
         <v>16</v>
@@ -3140,12 +3148,12 @@
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1">
         <v>19</v>
@@ -3230,7 +3238,7 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3320,7 +3328,7 @@
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3410,7 +3418,7 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3500,7 +3508,7 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3590,7 +3598,7 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3680,12 +3688,12 @@
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -3770,12 +3778,12 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1">
         <v>19</v>
@@ -3860,7 +3868,7 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3950,7 +3958,7 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4040,7 +4048,7 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4130,7 +4138,7 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4220,7 +4228,7 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4310,7 +4318,7 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4400,7 +4408,7 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4490,12 +4498,12 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1">
         <v>19</v>
@@ -4580,7 +4588,7 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4670,12 +4678,12 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1">
         <v>16</v>
@@ -4760,12 +4768,12 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -4850,7 +4858,7 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4940,7 +4948,7 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5030,7 +5038,7 @@
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5120,12 +5128,12 @@
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="1">
         <v>16</v>
@@ -5210,12 +5218,12 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -5300,12 +5308,12 @@
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="1">
         <v>16</v>
@@ -5390,12 +5398,12 @@
       <c r="AQ51" s="1"/>
       <c r="AR51" s="1"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>46</v>
+      <c r="B52" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C52" s="1">
         <v>19</v>
@@ -5480,12 +5488,12 @@
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="1">
         <v>16</v>
@@ -5570,12 +5578,12 @@
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -5660,12 +5668,12 @@
       <c r="AQ54" s="1"/>
       <c r="AR54" s="1"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1">
         <v>16</v>
@@ -5750,12 +5758,12 @@
       <c r="AQ55" s="1"/>
       <c r="AR55" s="1"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -5840,12 +5848,12 @@
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -5930,12 +5938,12 @@
       <c r="AQ57" s="1"/>
       <c r="AR57" s="1"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1">
         <v>16</v>
@@ -6020,12 +6028,12 @@
       <c r="AQ58" s="1"/>
       <c r="AR58" s="1"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -6110,12 +6118,12 @@
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -6200,12 +6208,12 @@
       <c r="AQ60" s="1"/>
       <c r="AR60" s="1"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -6290,12 +6298,12 @@
       <c r="AQ61" s="1"/>
       <c r="AR61" s="1"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="1">
         <v>19</v>
@@ -6380,12 +6388,12 @@
       <c r="AQ62" s="1"/>
       <c r="AR62" s="1"/>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="1">
         <v>19</v>
@@ -6470,12 +6478,12 @@
       <c r="AQ63" s="1"/>
       <c r="AR63" s="1"/>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -6560,12 +6568,12 @@
       <c r="AQ64" s="1"/>
       <c r="AR64" s="1"/>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -6650,12 +6658,12 @@
       <c r="AQ65" s="1"/>
       <c r="AR65" s="1"/>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -6740,7 +6748,7 @@
       <c r="AQ66" s="1"/>
       <c r="AR66" s="1"/>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6830,7 +6838,7 @@
       <c r="AQ67" s="1"/>
       <c r="AR67" s="1"/>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6920,7 +6928,7 @@
       <c r="AQ68" s="1"/>
       <c r="AR68" s="1"/>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7010,12 +7018,12 @@
       <c r="AQ69" s="1"/>
       <c r="AR69" s="1"/>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -7100,12 +7108,12 @@
       <c r="AQ70" s="1"/>
       <c r="AR70" s="1"/>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -7190,12 +7198,12 @@
       <c r="AQ71" s="1"/>
       <c r="AR71" s="1"/>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="1">
         <v>19</v>
@@ -7280,12 +7288,12 @@
       <c r="AQ72" s="1"/>
       <c r="AR72" s="1"/>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -7370,12 +7378,12 @@
       <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="1">
         <v>16</v>
@@ -7460,12 +7468,12 @@
       <c r="AQ74" s="1"/>
       <c r="AR74" s="1"/>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -7550,12 +7558,12 @@
       <c r="AQ75" s="1"/>
       <c r="AR75" s="1"/>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="1">
         <v>16</v>
@@ -7640,12 +7648,12 @@
       <c r="AQ76" s="1"/>
       <c r="AR76" s="1"/>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -7730,12 +7738,12 @@
       <c r="AQ77" s="1"/>
       <c r="AR77" s="1"/>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1">
         <v>19</v>
@@ -7820,12 +7828,12 @@
       <c r="AQ78" s="1"/>
       <c r="AR78" s="1"/>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1">
         <v>19</v>
@@ -7910,12 +7918,12 @@
       <c r="AQ79" s="1"/>
       <c r="AR79" s="1"/>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -8000,7 +8008,7 @@
       <c r="AQ80" s="1"/>
       <c r="AR80" s="1"/>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8090,12 +8098,12 @@
       <c r="AQ81" s="1"/>
       <c r="AR81" s="1"/>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="1">
         <v>16</v>
@@ -8180,12 +8188,12 @@
       <c r="AQ82" s="1"/>
       <c r="AR82" s="1"/>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="1">
         <v>19</v>
@@ -8270,12 +8278,12 @@
       <c r="AQ83" s="1"/>
       <c r="AR83" s="1"/>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -8360,12 +8368,12 @@
       <c r="AQ84" s="1"/>
       <c r="AR84" s="1"/>
     </row>
-    <row r="85" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="1">
         <v>19</v>
@@ -8450,7 +8458,7 @@
       <c r="AQ85" s="1"/>
       <c r="AR85" s="1"/>
     </row>
-    <row r="86" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -8515,7 +8523,7 @@
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1"/>
     </row>
-    <row r="87" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -8580,7 +8588,7 @@
       <c r="BJ87" s="1"/>
       <c r="BK87" s="1"/>
     </row>
-    <row r="88" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -8645,7 +8653,7 @@
       <c r="BJ88" s="1"/>
       <c r="BK88" s="1"/>
     </row>
-    <row r="89" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -8710,7 +8718,7 @@
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1"/>
     </row>
-    <row r="90" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -8775,7 +8783,7 @@
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1"/>
     </row>
-    <row r="91" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -8840,7 +8848,7 @@
       <c r="BJ91" s="1"/>
       <c r="BK91" s="1"/>
     </row>
-    <row r="92" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -8905,7 +8913,7 @@
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
     </row>
-    <row r="93" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -8970,7 +8978,7 @@
       <c r="BJ93" s="1"/>
       <c r="BK93" s="1"/>
     </row>
-    <row r="94" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -9035,7 +9043,7 @@
       <c r="BJ94" s="1"/>
       <c r="BK94" s="1"/>
     </row>
-    <row r="95" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -9100,7 +9108,7 @@
       <c r="BJ95" s="1"/>
       <c r="BK95" s="1"/>
     </row>
-    <row r="96" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -9165,7 +9173,7 @@
       <c r="BJ96" s="1"/>
       <c r="BK96" s="1"/>
     </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -9230,7 +9238,7 @@
       <c r="BJ97" s="1"/>
       <c r="BK97" s="1"/>
     </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -9295,7 +9303,7 @@
       <c r="BJ98" s="1"/>
       <c r="BK98" s="1"/>
     </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -9360,7 +9368,7 @@
       <c r="BJ99" s="1"/>
       <c r="BK99" s="1"/>
     </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -9425,7 +9433,7 @@
       <c r="BJ100" s="1"/>
       <c r="BK100" s="1"/>
     </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -9490,7 +9498,7 @@
       <c r="BJ101" s="1"/>
       <c r="BK101" s="1"/>
     </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -9555,7 +9563,7 @@
       <c r="BJ102" s="1"/>
       <c r="BK102" s="1"/>
     </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -9620,7 +9628,7 @@
       <c r="BJ103" s="1"/>
       <c r="BK103" s="1"/>
     </row>
-    <row r="104" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9685,7 +9693,7 @@
       <c r="BJ104" s="1"/>
       <c r="BK104" s="1"/>
     </row>
-    <row r="105" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -9750,7 +9758,7 @@
       <c r="BJ105" s="1"/>
       <c r="BK105" s="1"/>
     </row>
-    <row r="106" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -9815,7 +9823,7 @@
       <c r="BJ106" s="1"/>
       <c r="BK106" s="1"/>
     </row>
-    <row r="107" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -9880,7 +9888,7 @@
       <c r="BJ107" s="1"/>
       <c r="BK107" s="1"/>
     </row>
-    <row r="108" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -9945,7 +9953,7 @@
       <c r="BJ108" s="1"/>
       <c r="BK108" s="1"/>
     </row>
-    <row r="109" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -10010,7 +10018,7 @@
       <c r="BJ109" s="1"/>
       <c r="BK109" s="1"/>
     </row>
-    <row r="110" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -10075,7 +10083,7 @@
       <c r="BJ110" s="1"/>
       <c r="BK110" s="1"/>
     </row>
-    <row r="111" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -10140,7 +10148,7 @@
       <c r="BJ111" s="1"/>
       <c r="BK111" s="1"/>
     </row>
-    <row r="112" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -10205,7 +10213,7 @@
       <c r="BJ112" s="1"/>
       <c r="BK112" s="1"/>
     </row>
-    <row r="113" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -10270,7 +10278,7 @@
       <c r="BJ113" s="1"/>
       <c r="BK113" s="1"/>
     </row>
-    <row r="114" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -10335,7 +10343,7 @@
       <c r="BJ114" s="1"/>
       <c r="BK114" s="1"/>
     </row>
-    <row r="115" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -10400,7 +10408,7 @@
       <c r="BJ115" s="1"/>
       <c r="BK115" s="1"/>
     </row>
-    <row r="116" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -10465,7 +10473,7 @@
       <c r="BJ116" s="1"/>
       <c r="BK116" s="1"/>
     </row>
-    <row r="117" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -10530,7 +10538,7 @@
       <c r="BJ117" s="1"/>
       <c r="BK117" s="1"/>
     </row>
-    <row r="118" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -10595,7 +10603,7 @@
       <c r="BJ118" s="1"/>
       <c r="BK118" s="1"/>
     </row>
-    <row r="119" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -10660,7 +10668,7 @@
       <c r="BJ119" s="1"/>
       <c r="BK119" s="1"/>
     </row>
-    <row r="120" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -10725,7 +10733,7 @@
       <c r="BJ120" s="1"/>
       <c r="BK120" s="1"/>
     </row>
-    <row r="121" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -10790,7 +10798,7 @@
       <c r="BJ121" s="1"/>
       <c r="BK121" s="1"/>
     </row>
-    <row r="122" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -10855,7 +10863,7 @@
       <c r="BJ122" s="1"/>
       <c r="BK122" s="1"/>
     </row>
-    <row r="123" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -10920,7 +10928,7 @@
       <c r="BJ123" s="1"/>
       <c r="BK123" s="1"/>
     </row>
-    <row r="124" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -10985,7 +10993,7 @@
       <c r="BJ124" s="1"/>
       <c r="BK124" s="1"/>
     </row>
-    <row r="125" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -11050,7 +11058,7 @@
       <c r="BJ125" s="1"/>
       <c r="BK125" s="1"/>
     </row>
-    <row r="126" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -11115,7 +11123,7 @@
       <c r="BJ126" s="1"/>
       <c r="BK126" s="1"/>
     </row>
-    <row r="127" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -11180,7 +11188,7 @@
       <c r="BJ127" s="1"/>
       <c r="BK127" s="1"/>
     </row>
-    <row r="128" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -11245,7 +11253,7 @@
       <c r="BJ128" s="1"/>
       <c r="BK128" s="1"/>
     </row>
-    <row r="129" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -11310,7 +11318,7 @@
       <c r="BJ129" s="1"/>
       <c r="BK129" s="1"/>
     </row>
-    <row r="130" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -11375,7 +11383,7 @@
       <c r="BJ130" s="1"/>
       <c r="BK130" s="1"/>
     </row>
-    <row r="131" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -11440,7 +11448,7 @@
       <c r="BJ131" s="1"/>
       <c r="BK131" s="1"/>
     </row>
-    <row r="132" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -11505,7 +11513,7 @@
       <c r="BJ132" s="1"/>
       <c r="BK132" s="1"/>
     </row>
-    <row r="133" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -11570,7 +11578,7 @@
       <c r="BJ133" s="1"/>
       <c r="BK133" s="1"/>
     </row>
-    <row r="134" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -11635,7 +11643,7 @@
       <c r="BJ134" s="1"/>
       <c r="BK134" s="1"/>
     </row>
-    <row r="135" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -11700,7 +11708,7 @@
       <c r="BJ135" s="1"/>
       <c r="BK135" s="1"/>
     </row>
-    <row r="136" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -11765,7 +11773,7 @@
       <c r="BJ136" s="1"/>
       <c r="BK136" s="1"/>
     </row>
-    <row r="137" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -11830,7 +11838,7 @@
       <c r="BJ137" s="1"/>
       <c r="BK137" s="1"/>
     </row>
-    <row r="138" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -11895,7 +11903,7 @@
       <c r="BJ138" s="1"/>
       <c r="BK138" s="1"/>
     </row>
-    <row r="139" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -11960,7 +11968,7 @@
       <c r="BJ139" s="1"/>
       <c r="BK139" s="1"/>
     </row>
-    <row r="140" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -12025,7 +12033,7 @@
       <c r="BJ140" s="1"/>
       <c r="BK140" s="1"/>
     </row>
-    <row r="141" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -12090,7 +12098,7 @@
       <c r="BJ141" s="1"/>
       <c r="BK141" s="1"/>
     </row>
-    <row r="142" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -12155,7 +12163,7 @@
       <c r="BJ142" s="1"/>
       <c r="BK142" s="1"/>
     </row>
-    <row r="143" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -12220,7 +12228,7 @@
       <c r="BJ143" s="1"/>
       <c r="BK143" s="1"/>
     </row>
-    <row r="144" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -12285,7 +12293,7 @@
       <c r="BJ144" s="1"/>
       <c r="BK144" s="1"/>
     </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -12350,7 +12358,7 @@
       <c r="BJ145" s="1"/>
       <c r="BK145" s="1"/>
     </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -12415,7 +12423,7 @@
       <c r="BJ146" s="1"/>
       <c r="BK146" s="1"/>
     </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -12480,7 +12488,7 @@
       <c r="BJ147" s="1"/>
       <c r="BK147" s="1"/>
     </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -12545,7 +12553,7 @@
       <c r="BJ148" s="1"/>
       <c r="BK148" s="1"/>
     </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -12610,7 +12618,7 @@
       <c r="BJ149" s="1"/>
       <c r="BK149" s="1"/>
     </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -12675,7 +12683,7 @@
       <c r="BJ150" s="1"/>
       <c r="BK150" s="1"/>
     </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -12740,7 +12748,7 @@
       <c r="BJ151" s="1"/>
       <c r="BK151" s="1"/>
     </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -12805,7 +12813,7 @@
       <c r="BJ152" s="1"/>
       <c r="BK152" s="1"/>
     </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -12870,7 +12878,7 @@
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
     </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -12935,7 +12943,7 @@
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
     </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -13000,7 +13008,7 @@
       <c r="BJ155" s="1"/>
       <c r="BK155" s="1"/>
     </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -13065,7 +13073,7 @@
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
     </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -13130,7 +13138,7 @@
       <c r="BJ157" s="1"/>
       <c r="BK157" s="1"/>
     </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -13195,7 +13203,7 @@
       <c r="BJ158" s="1"/>
       <c r="BK158" s="1"/>
     </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -13260,7 +13268,7 @@
       <c r="BJ159" s="1"/>
       <c r="BK159" s="1"/>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -13325,7 +13333,7 @@
       <c r="BJ160" s="1"/>
       <c r="BK160" s="1"/>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -13390,7 +13398,7 @@
       <c r="BJ161" s="1"/>
       <c r="BK161" s="1"/>
     </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -13455,7 +13463,7 @@
       <c r="BJ162" s="1"/>
       <c r="BK162" s="1"/>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -13520,7 +13528,7 @@
       <c r="BJ163" s="1"/>
       <c r="BK163" s="1"/>
     </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -13585,7 +13593,7 @@
       <c r="BJ164" s="1"/>
       <c r="BK164" s="1"/>
     </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -13650,7 +13658,7 @@
       <c r="BJ165" s="1"/>
       <c r="BK165" s="1"/>
     </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -13715,7 +13723,7 @@
       <c r="BJ166" s="1"/>
       <c r="BK166" s="1"/>
     </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -13780,7 +13788,7 @@
       <c r="BJ167" s="1"/>
       <c r="BK167" s="1"/>
     </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -13845,7 +13853,7 @@
       <c r="BJ168" s="1"/>
       <c r="BK168" s="1"/>
     </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -13910,7 +13918,7 @@
       <c r="BJ169" s="1"/>
       <c r="BK169" s="1"/>
     </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -13975,7 +13983,7 @@
       <c r="BJ170" s="1"/>
       <c r="BK170" s="1"/>
     </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -14040,7 +14048,7 @@
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
     </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -14105,7 +14113,7 @@
       <c r="BJ172" s="1"/>
       <c r="BK172" s="1"/>
     </row>
-    <row r="173" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -14170,7 +14178,7 @@
       <c r="BJ173" s="1"/>
       <c r="BK173" s="1"/>
     </row>
-    <row r="174" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -14235,7 +14243,7 @@
       <c r="BJ174" s="1"/>
       <c r="BK174" s="1"/>
     </row>
-    <row r="175" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -14300,7 +14308,7 @@
       <c r="BJ175" s="1"/>
       <c r="BK175" s="1"/>
     </row>
-    <row r="176" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -14365,7 +14373,7 @@
       <c r="BJ176" s="1"/>
       <c r="BK176" s="1"/>
     </row>
-    <row r="177" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -14430,7 +14438,7 @@
       <c r="BJ177" s="1"/>
       <c r="BK177" s="1"/>
     </row>
-    <row r="178" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -14495,7 +14503,7 @@
       <c r="BJ178" s="1"/>
       <c r="BK178" s="1"/>
     </row>
-    <row r="179" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -14560,7 +14568,7 @@
       <c r="BJ179" s="1"/>
       <c r="BK179" s="1"/>
     </row>
-    <row r="180" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -14625,7 +14633,7 @@
       <c r="BJ180" s="1"/>
       <c r="BK180" s="1"/>
     </row>
-    <row r="181" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -14690,7 +14698,7 @@
       <c r="BJ181" s="1"/>
       <c r="BK181" s="1"/>
     </row>
-    <row r="182" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -14755,7 +14763,7 @@
       <c r="BJ182" s="1"/>
       <c r="BK182" s="1"/>
     </row>
-    <row r="183" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -14820,7 +14828,7 @@
       <c r="BJ183" s="1"/>
       <c r="BK183" s="1"/>
     </row>
-    <row r="184" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -14885,7 +14893,7 @@
       <c r="BJ184" s="1"/>
       <c r="BK184" s="1"/>
     </row>
-    <row r="185" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -14950,7 +14958,7 @@
       <c r="BJ185" s="1"/>
       <c r="BK185" s="1"/>
     </row>
-    <row r="186" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -15015,7 +15023,7 @@
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
     </row>
-    <row r="187" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -15080,7 +15088,7 @@
       <c r="BJ187" s="1"/>
       <c r="BK187" s="1"/>
     </row>
-    <row r="188" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -15145,7 +15153,7 @@
       <c r="BJ188" s="1"/>
       <c r="BK188" s="1"/>
     </row>
-    <row r="189" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -15210,7 +15218,7 @@
       <c r="BJ189" s="1"/>
       <c r="BK189" s="1"/>
     </row>
-    <row r="190" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -15275,7 +15283,7 @@
       <c r="BJ190" s="1"/>
       <c r="BK190" s="1"/>
     </row>
-    <row r="191" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -15340,7 +15348,7 @@
       <c r="BJ191" s="1"/>
       <c r="BK191" s="1"/>
     </row>
-    <row r="192" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -15405,7 +15413,7 @@
       <c r="BJ192" s="1"/>
       <c r="BK192" s="1"/>
     </row>
-    <row r="193" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -15470,7 +15478,7 @@
       <c r="BJ193" s="1"/>
       <c r="BK193" s="1"/>
     </row>
-    <row r="194" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -15535,7 +15543,7 @@
       <c r="BJ194" s="1"/>
       <c r="BK194" s="1"/>
     </row>
-    <row r="195" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -15600,7 +15608,7 @@
       <c r="BJ195" s="1"/>
       <c r="BK195" s="1"/>
     </row>
-    <row r="196" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -15665,7 +15673,7 @@
       <c r="BJ196" s="1"/>
       <c r="BK196" s="1"/>
     </row>
-    <row r="197" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -15730,7 +15738,7 @@
       <c r="BJ197" s="1"/>
       <c r="BK197" s="1"/>
     </row>
-    <row r="198" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -15795,7 +15803,7 @@
       <c r="BJ198" s="1"/>
       <c r="BK198" s="1"/>
     </row>
-    <row r="199" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -15860,7 +15868,7 @@
       <c r="BJ199" s="1"/>
       <c r="BK199" s="1"/>
     </row>
-    <row r="200" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -15925,7 +15933,7 @@
       <c r="BJ200" s="1"/>
       <c r="BK200" s="1"/>
     </row>
-    <row r="201" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -15993,5 +16001,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/excel/JYX2场景.xlsx
+++ b/jyx2/excel/JYX2场景.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
+    <workbookView windowHeight="17860"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -90,10 +85,31 @@
     <t>胡斐居</t>
   </si>
   <si>
+    <t>河洛客栈</t>
+  </si>
+  <si>
+    <t>云鹤崖</t>
+  </si>
+  <si>
+    <t>有间客栈</t>
+  </si>
+  <si>
+    <t>昆仑仙境</t>
+  </si>
+  <si>
     <t>山洞</t>
   </si>
   <si>
     <t>北丑居</t>
+  </si>
+  <si>
+    <t>大轮寺</t>
+  </si>
+  <si>
+    <t>成昆居</t>
+  </si>
+  <si>
+    <t>光明顶</t>
   </si>
   <si>
     <t>明教分舵</t>
@@ -102,16 +118,40 @@
     <t>明教地道</t>
   </si>
   <si>
+    <t>高昌迷宫</t>
+  </si>
+  <si>
+    <t>沙漠废墟</t>
+  </si>
+  <si>
+    <t>金轮寺</t>
+  </si>
+  <si>
     <t>回族部落</t>
   </si>
   <si>
     <t>古墓</t>
   </si>
   <si>
+    <t>重阳宫</t>
+  </si>
+  <si>
     <t>百花谷</t>
   </si>
   <si>
+    <t>黑龙潭</t>
+  </si>
+  <si>
+    <t>绝情谷</t>
+  </si>
+  <si>
     <t>洪七公居</t>
+  </si>
+  <si>
+    <t>苗人凤居</t>
+  </si>
+  <si>
+    <t>武道大会</t>
   </si>
   <si>
     <t>黑木崖</t>
@@ -127,6 +167,12 @@
   </si>
   <si>
     <t>平一指居</t>
+  </si>
+  <si>
+    <t>恒山派</t>
+  </si>
+  <si>
+    <t>海边小屋</t>
   </si>
   <si>
     <t>峨嵋派</t>
@@ -150,16 +196,55 @@
     <t>凌霄城</t>
   </si>
   <si>
+    <t>悦来客栈</t>
+  </si>
+  <si>
+    <t>无量山洞</t>
+  </si>
+  <si>
+    <t>武当派</t>
+  </si>
+  <si>
     <t>蝴蝶谷</t>
   </si>
   <si>
-    <t>程瑛居</t>
+    <t>程英居</t>
   </si>
   <si>
     <t>金蛇山洞</t>
   </si>
   <si>
+    <t>一灯居</t>
+  </si>
+  <si>
+    <t>铁掌山</t>
+  </si>
+  <si>
+    <t>药王庄</t>
+  </si>
+  <si>
+    <t>阎基居</t>
+  </si>
+  <si>
+    <t>丐帮</t>
+  </si>
+  <si>
+    <t>燕子坞</t>
+  </si>
+  <si>
     <t>擂鼓山</t>
+  </si>
+  <si>
+    <t>薛慕华居</t>
+  </si>
+  <si>
+    <t>梅庄</t>
+  </si>
+  <si>
+    <t>福威镖局</t>
+  </si>
+  <si>
+    <t>华山派</t>
   </si>
   <si>
     <t>衡山派</t>
@@ -168,211 +253,77 @@
     <t>田伯光居</t>
   </si>
   <si>
-    <t>河洛客栈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>云鹤崖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有间客栈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑仙境</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大轮寺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>成昆居</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明顶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高昌迷宫</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠废墟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金轮寺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳宫</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙潭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝情谷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗人凤居</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道大会</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒山派</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>海边小屋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>悦来客栈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无量山洞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当派</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一灯居</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁掌山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>药王庄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕子坞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛慕华居</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅庄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福威镖局</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山派</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>龙门客栈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高升客栈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>破庙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>天宁寺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>南贤居</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>昆仑派</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>白驼山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小虾米居</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神龙教</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>冰火岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>灵蛇岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>侠客岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>桃花岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>霹雳堂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>万鳄岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>浡泥岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绝情谷底</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>思过崖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>梅庄地牢</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>圣堂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎基居</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -383,6 +334,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -391,33 +343,358 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -425,21 +702,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -449,23 +968,67 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,21 +1357,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BK201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +1461,7 @@
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -988,12 +1551,12 @@
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>19</v>
@@ -1078,12 +1641,12 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>19</v>
@@ -1168,12 +1731,12 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>19</v>
@@ -1258,12 +1821,12 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -1348,12 +1911,12 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1438,12 +2001,12 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>19</v>
@@ -1528,12 +2091,12 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -1618,12 +2181,12 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1708,12 +2271,12 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1798,12 +2361,12 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>19</v>
@@ -1888,12 +2451,12 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1978,12 +2541,12 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2068,12 +2631,12 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>16</v>
@@ -2158,12 +2721,12 @@
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>16</v>
@@ -2248,12 +2811,12 @@
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -2338,12 +2901,12 @@
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -2428,12 +2991,12 @@
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
@@ -2518,12 +3081,12 @@
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1">
         <v>16</v>
@@ -2608,12 +3171,12 @@
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -2698,12 +3261,12 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>19</v>
@@ -2788,12 +3351,12 @@
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>16</v>
@@ -2878,12 +3441,12 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1">
         <v>16</v>
@@ -2968,12 +3531,12 @@
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -3058,12 +3621,12 @@
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
         <v>16</v>
@@ -3148,12 +3711,12 @@
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <v>19</v>
@@ -3238,12 +3801,12 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
         <v>16</v>
@@ -3328,12 +3891,12 @@
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -3418,12 +3981,12 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -3508,12 +4071,12 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -3598,12 +4161,12 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -3688,12 +4251,12 @@
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -3778,12 +4341,12 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1">
         <v>19</v>
@@ -3868,12 +4431,12 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -3958,12 +4521,12 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -4048,12 +4611,12 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -4138,12 +4701,12 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1">
         <v>16</v>
@@ -4228,12 +4791,12 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1">
         <v>19</v>
@@ -4318,12 +4881,12 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1">
         <v>16</v>
@@ -4408,12 +4971,12 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -4498,12 +5061,12 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1">
         <v>19</v>
@@ -4588,12 +5151,12 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1">
         <v>16</v>
@@ -4678,12 +5241,12 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1">
         <v>16</v>
@@ -4768,12 +5331,12 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -4858,12 +5421,12 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1">
         <v>16</v>
@@ -4948,12 +5511,12 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>44</v>
+      <c r="B47" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C47" s="1">
         <v>19</v>
@@ -5038,12 +5601,12 @@
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -5128,12 +5691,12 @@
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1">
         <v>16</v>
@@ -5218,12 +5781,12 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -5308,12 +5871,12 @@
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1">
         <v>16</v>
@@ -5398,12 +5961,12 @@
       <c r="AQ51" s="1"/>
       <c r="AR51" s="1"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1">
         <v>19</v>
@@ -5488,12 +6051,12 @@
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1">
         <v>16</v>
@@ -5578,12 +6141,12 @@
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -5668,12 +6231,12 @@
       <c r="AQ54" s="1"/>
       <c r="AR54" s="1"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1">
         <v>16</v>
@@ -5758,12 +6321,12 @@
       <c r="AQ55" s="1"/>
       <c r="AR55" s="1"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -5848,12 +6411,12 @@
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -5938,12 +6501,12 @@
       <c r="AQ57" s="1"/>
       <c r="AR57" s="1"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1">
         <v>16</v>
@@ -6028,12 +6591,12 @@
       <c r="AQ58" s="1"/>
       <c r="AR58" s="1"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -6118,12 +6681,12 @@
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -6208,12 +6771,12 @@
       <c r="AQ60" s="1"/>
       <c r="AR60" s="1"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -6298,12 +6861,12 @@
       <c r="AQ61" s="1"/>
       <c r="AR61" s="1"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" s="1">
         <v>19</v>
@@ -6388,12 +6951,12 @@
       <c r="AQ62" s="1"/>
       <c r="AR62" s="1"/>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="1">
         <v>19</v>
@@ -6478,12 +7041,12 @@
       <c r="AQ63" s="1"/>
       <c r="AR63" s="1"/>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -6568,12 +7131,12 @@
       <c r="AQ64" s="1"/>
       <c r="AR64" s="1"/>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -6658,12 +7221,12 @@
       <c r="AQ65" s="1"/>
       <c r="AR65" s="1"/>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -6748,12 +7311,12 @@
       <c r="AQ66" s="1"/>
       <c r="AR66" s="1"/>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C67" s="1">
         <v>19</v>
@@ -6838,12 +7401,12 @@
       <c r="AQ67" s="1"/>
       <c r="AR67" s="1"/>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C68" s="1">
         <v>16</v>
@@ -6928,12 +7491,12 @@
       <c r="AQ68" s="1"/>
       <c r="AR68" s="1"/>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1">
         <v>16</v>
@@ -7018,12 +7581,12 @@
       <c r="AQ69" s="1"/>
       <c r="AR69" s="1"/>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -7108,12 +7671,12 @@
       <c r="AQ70" s="1"/>
       <c r="AR70" s="1"/>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -7198,12 +7761,12 @@
       <c r="AQ71" s="1"/>
       <c r="AR71" s="1"/>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C72" s="1">
         <v>19</v>
@@ -7288,12 +7851,12 @@
       <c r="AQ72" s="1"/>
       <c r="AR72" s="1"/>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -7378,12 +7941,12 @@
       <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" s="1">
         <v>16</v>
@@ -7468,12 +8031,12 @@
       <c r="AQ74" s="1"/>
       <c r="AR74" s="1"/>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -7558,12 +8121,12 @@
       <c r="AQ75" s="1"/>
       <c r="AR75" s="1"/>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" s="1">
         <v>16</v>
@@ -7648,12 +8211,12 @@
       <c r="AQ76" s="1"/>
       <c r="AR76" s="1"/>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -7738,12 +8301,12 @@
       <c r="AQ77" s="1"/>
       <c r="AR77" s="1"/>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C78" s="1">
         <v>19</v>
@@ -7828,12 +8391,12 @@
       <c r="AQ78" s="1"/>
       <c r="AR78" s="1"/>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C79" s="1">
         <v>19</v>
@@ -7918,12 +8481,12 @@
       <c r="AQ79" s="1"/>
       <c r="AR79" s="1"/>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -8008,12 +8571,12 @@
       <c r="AQ80" s="1"/>
       <c r="AR80" s="1"/>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:44">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C81" s="1">
         <v>19</v>
@@ -8098,12 +8661,12 @@
       <c r="AQ81" s="1"/>
       <c r="AR81" s="1"/>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:44">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>16</v>
@@ -8188,12 +8751,12 @@
       <c r="AQ82" s="1"/>
       <c r="AR82" s="1"/>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:44">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" s="1">
         <v>19</v>
@@ -8278,12 +8841,12 @@
       <c r="AQ83" s="1"/>
       <c r="AR83" s="1"/>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:44">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -8368,12 +8931,12 @@
       <c r="AQ84" s="1"/>
       <c r="AR84" s="1"/>
     </row>
-    <row r="85" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:44">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" s="1">
         <v>19</v>
@@ -8458,7 +9021,7 @@
       <c r="AQ85" s="1"/>
       <c r="AR85" s="1"/>
     </row>
-    <row r="86" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:63">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -8523,7 +9086,7 @@
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1"/>
     </row>
-    <row r="87" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:63">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -8588,7 +9151,7 @@
       <c r="BJ87" s="1"/>
       <c r="BK87" s="1"/>
     </row>
-    <row r="88" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:63">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -8653,7 +9216,7 @@
       <c r="BJ88" s="1"/>
       <c r="BK88" s="1"/>
     </row>
-    <row r="89" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:63">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -8718,7 +9281,7 @@
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1"/>
     </row>
-    <row r="90" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:63">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -8783,7 +9346,7 @@
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1"/>
     </row>
-    <row r="91" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:63">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -8848,7 +9411,7 @@
       <c r="BJ91" s="1"/>
       <c r="BK91" s="1"/>
     </row>
-    <row r="92" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:63">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -8913,7 +9476,7 @@
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
     </row>
-    <row r="93" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:63">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -8978,7 +9541,7 @@
       <c r="BJ93" s="1"/>
       <c r="BK93" s="1"/>
     </row>
-    <row r="94" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:63">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -9043,7 +9606,7 @@
       <c r="BJ94" s="1"/>
       <c r="BK94" s="1"/>
     </row>
-    <row r="95" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:63">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -9108,7 +9671,7 @@
       <c r="BJ95" s="1"/>
       <c r="BK95" s="1"/>
     </row>
-    <row r="96" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:63">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -9173,7 +9736,7 @@
       <c r="BJ96" s="1"/>
       <c r="BK96" s="1"/>
     </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:63">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -9238,7 +9801,7 @@
       <c r="BJ97" s="1"/>
       <c r="BK97" s="1"/>
     </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:63">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -9303,7 +9866,7 @@
       <c r="BJ98" s="1"/>
       <c r="BK98" s="1"/>
     </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:63">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -9368,7 +9931,7 @@
       <c r="BJ99" s="1"/>
       <c r="BK99" s="1"/>
     </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:63">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -9433,7 +9996,7 @@
       <c r="BJ100" s="1"/>
       <c r="BK100" s="1"/>
     </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:63">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -9498,7 +10061,7 @@
       <c r="BJ101" s="1"/>
       <c r="BK101" s="1"/>
     </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:63">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -9563,7 +10126,7 @@
       <c r="BJ102" s="1"/>
       <c r="BK102" s="1"/>
     </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:63">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -9628,7 +10191,7 @@
       <c r="BJ103" s="1"/>
       <c r="BK103" s="1"/>
     </row>
-    <row r="104" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:63">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9693,7 +10256,7 @@
       <c r="BJ104" s="1"/>
       <c r="BK104" s="1"/>
     </row>
-    <row r="105" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:63">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -9758,7 +10321,7 @@
       <c r="BJ105" s="1"/>
       <c r="BK105" s="1"/>
     </row>
-    <row r="106" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:63">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -9823,7 +10386,7 @@
       <c r="BJ106" s="1"/>
       <c r="BK106" s="1"/>
     </row>
-    <row r="107" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:63">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -9888,7 +10451,7 @@
       <c r="BJ107" s="1"/>
       <c r="BK107" s="1"/>
     </row>
-    <row r="108" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:63">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -9953,7 +10516,7 @@
       <c r="BJ108" s="1"/>
       <c r="BK108" s="1"/>
     </row>
-    <row r="109" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:63">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -10018,7 +10581,7 @@
       <c r="BJ109" s="1"/>
       <c r="BK109" s="1"/>
     </row>
-    <row r="110" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:63">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -10083,7 +10646,7 @@
       <c r="BJ110" s="1"/>
       <c r="BK110" s="1"/>
     </row>
-    <row r="111" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:63">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -10148,7 +10711,7 @@
       <c r="BJ111" s="1"/>
       <c r="BK111" s="1"/>
     </row>
-    <row r="112" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:63">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -10213,7 +10776,7 @@
       <c r="BJ112" s="1"/>
       <c r="BK112" s="1"/>
     </row>
-    <row r="113" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:63">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -10278,7 +10841,7 @@
       <c r="BJ113" s="1"/>
       <c r="BK113" s="1"/>
     </row>
-    <row r="114" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:63">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -10343,7 +10906,7 @@
       <c r="BJ114" s="1"/>
       <c r="BK114" s="1"/>
     </row>
-    <row r="115" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:63">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -10408,7 +10971,7 @@
       <c r="BJ115" s="1"/>
       <c r="BK115" s="1"/>
     </row>
-    <row r="116" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:63">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -10473,7 +11036,7 @@
       <c r="BJ116" s="1"/>
       <c r="BK116" s="1"/>
     </row>
-    <row r="117" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:63">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -10538,7 +11101,7 @@
       <c r="BJ117" s="1"/>
       <c r="BK117" s="1"/>
     </row>
-    <row r="118" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:63">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -10603,7 +11166,7 @@
       <c r="BJ118" s="1"/>
       <c r="BK118" s="1"/>
     </row>
-    <row r="119" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:63">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -10668,7 +11231,7 @@
       <c r="BJ119" s="1"/>
       <c r="BK119" s="1"/>
     </row>
-    <row r="120" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:63">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -10733,7 +11296,7 @@
       <c r="BJ120" s="1"/>
       <c r="BK120" s="1"/>
     </row>
-    <row r="121" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:63">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -10798,7 +11361,7 @@
       <c r="BJ121" s="1"/>
       <c r="BK121" s="1"/>
     </row>
-    <row r="122" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:63">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -10863,7 +11426,7 @@
       <c r="BJ122" s="1"/>
       <c r="BK122" s="1"/>
     </row>
-    <row r="123" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:63">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -10928,7 +11491,7 @@
       <c r="BJ123" s="1"/>
       <c r="BK123" s="1"/>
     </row>
-    <row r="124" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:63">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -10993,7 +11556,7 @@
       <c r="BJ124" s="1"/>
       <c r="BK124" s="1"/>
     </row>
-    <row r="125" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:63">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -11058,7 +11621,7 @@
       <c r="BJ125" s="1"/>
       <c r="BK125" s="1"/>
     </row>
-    <row r="126" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:63">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -11123,7 +11686,7 @@
       <c r="BJ126" s="1"/>
       <c r="BK126" s="1"/>
     </row>
-    <row r="127" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:63">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -11188,7 +11751,7 @@
       <c r="BJ127" s="1"/>
       <c r="BK127" s="1"/>
     </row>
-    <row r="128" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:63">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -11253,7 +11816,7 @@
       <c r="BJ128" s="1"/>
       <c r="BK128" s="1"/>
     </row>
-    <row r="129" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:63">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -11318,7 +11881,7 @@
       <c r="BJ129" s="1"/>
       <c r="BK129" s="1"/>
     </row>
-    <row r="130" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:63">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -11383,7 +11946,7 @@
       <c r="BJ130" s="1"/>
       <c r="BK130" s="1"/>
     </row>
-    <row r="131" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:63">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -11448,7 +12011,7 @@
       <c r="BJ131" s="1"/>
       <c r="BK131" s="1"/>
     </row>
-    <row r="132" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:63">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -11513,7 +12076,7 @@
       <c r="BJ132" s="1"/>
       <c r="BK132" s="1"/>
     </row>
-    <row r="133" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:63">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -11578,7 +12141,7 @@
       <c r="BJ133" s="1"/>
       <c r="BK133" s="1"/>
     </row>
-    <row r="134" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:63">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -11643,7 +12206,7 @@
       <c r="BJ134" s="1"/>
       <c r="BK134" s="1"/>
     </row>
-    <row r="135" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:63">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -11708,7 +12271,7 @@
       <c r="BJ135" s="1"/>
       <c r="BK135" s="1"/>
     </row>
-    <row r="136" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:63">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -11773,7 +12336,7 @@
       <c r="BJ136" s="1"/>
       <c r="BK136" s="1"/>
     </row>
-    <row r="137" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:63">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -11838,7 +12401,7 @@
       <c r="BJ137" s="1"/>
       <c r="BK137" s="1"/>
     </row>
-    <row r="138" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:63">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -11903,7 +12466,7 @@
       <c r="BJ138" s="1"/>
       <c r="BK138" s="1"/>
     </row>
-    <row r="139" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:63">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -11968,7 +12531,7 @@
       <c r="BJ139" s="1"/>
       <c r="BK139" s="1"/>
     </row>
-    <row r="140" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:63">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -12033,7 +12596,7 @@
       <c r="BJ140" s="1"/>
       <c r="BK140" s="1"/>
     </row>
-    <row r="141" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:63">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -12098,7 +12661,7 @@
       <c r="BJ141" s="1"/>
       <c r="BK141" s="1"/>
     </row>
-    <row r="142" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:63">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -12163,7 +12726,7 @@
       <c r="BJ142" s="1"/>
       <c r="BK142" s="1"/>
     </row>
-    <row r="143" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:63">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -12228,7 +12791,7 @@
       <c r="BJ143" s="1"/>
       <c r="BK143" s="1"/>
     </row>
-    <row r="144" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:63">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -12293,7 +12856,7 @@
       <c r="BJ144" s="1"/>
       <c r="BK144" s="1"/>
     </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:63">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -12358,7 +12921,7 @@
       <c r="BJ145" s="1"/>
       <c r="BK145" s="1"/>
     </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:63">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -12423,7 +12986,7 @@
       <c r="BJ146" s="1"/>
       <c r="BK146" s="1"/>
     </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:63">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -12488,7 +13051,7 @@
       <c r="BJ147" s="1"/>
       <c r="BK147" s="1"/>
     </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:63">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -12553,7 +13116,7 @@
       <c r="BJ148" s="1"/>
       <c r="BK148" s="1"/>
     </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:63">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -12618,7 +13181,7 @@
       <c r="BJ149" s="1"/>
       <c r="BK149" s="1"/>
     </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:63">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -12683,7 +13246,7 @@
       <c r="BJ150" s="1"/>
       <c r="BK150" s="1"/>
     </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:63">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -12748,7 +13311,7 @@
       <c r="BJ151" s="1"/>
       <c r="BK151" s="1"/>
     </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:63">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -12813,7 +13376,7 @@
       <c r="BJ152" s="1"/>
       <c r="BK152" s="1"/>
     </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:63">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -12878,7 +13441,7 @@
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
     </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:63">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -12943,7 +13506,7 @@
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
     </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:63">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -13008,7 +13571,7 @@
       <c r="BJ155" s="1"/>
       <c r="BK155" s="1"/>
     </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:63">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -13073,7 +13636,7 @@
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
     </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:63">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -13138,7 +13701,7 @@
       <c r="BJ157" s="1"/>
       <c r="BK157" s="1"/>
     </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:63">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -13203,7 +13766,7 @@
       <c r="BJ158" s="1"/>
       <c r="BK158" s="1"/>
     </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:63">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -13268,7 +13831,7 @@
       <c r="BJ159" s="1"/>
       <c r="BK159" s="1"/>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:63">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -13333,7 +13896,7 @@
       <c r="BJ160" s="1"/>
       <c r="BK160" s="1"/>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:63">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -13398,7 +13961,7 @@
       <c r="BJ161" s="1"/>
       <c r="BK161" s="1"/>
     </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:63">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -13463,7 +14026,7 @@
       <c r="BJ162" s="1"/>
       <c r="BK162" s="1"/>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:63">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -13528,7 +14091,7 @@
       <c r="BJ163" s="1"/>
       <c r="BK163" s="1"/>
     </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:63">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -13593,7 +14156,7 @@
       <c r="BJ164" s="1"/>
       <c r="BK164" s="1"/>
     </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:63">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -13658,7 +14221,7 @@
       <c r="BJ165" s="1"/>
       <c r="BK165" s="1"/>
     </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:63">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -13723,7 +14286,7 @@
       <c r="BJ166" s="1"/>
       <c r="BK166" s="1"/>
     </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:63">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -13788,7 +14351,7 @@
       <c r="BJ167" s="1"/>
       <c r="BK167" s="1"/>
     </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:63">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -13853,7 +14416,7 @@
       <c r="BJ168" s="1"/>
       <c r="BK168" s="1"/>
     </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:63">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -13918,7 +14481,7 @@
       <c r="BJ169" s="1"/>
       <c r="BK169" s="1"/>
     </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:63">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -13983,7 +14546,7 @@
       <c r="BJ170" s="1"/>
       <c r="BK170" s="1"/>
     </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:63">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -14048,7 +14611,7 @@
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
     </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:63">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -14113,7 +14676,7 @@
       <c r="BJ172" s="1"/>
       <c r="BK172" s="1"/>
     </row>
-    <row r="173" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:63">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -14178,7 +14741,7 @@
       <c r="BJ173" s="1"/>
       <c r="BK173" s="1"/>
     </row>
-    <row r="174" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:63">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -14243,7 +14806,7 @@
       <c r="BJ174" s="1"/>
       <c r="BK174" s="1"/>
     </row>
-    <row r="175" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:63">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -14308,7 +14871,7 @@
       <c r="BJ175" s="1"/>
       <c r="BK175" s="1"/>
     </row>
-    <row r="176" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:63">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -14373,7 +14936,7 @@
       <c r="BJ176" s="1"/>
       <c r="BK176" s="1"/>
     </row>
-    <row r="177" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:63">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -14438,7 +15001,7 @@
       <c r="BJ177" s="1"/>
       <c r="BK177" s="1"/>
     </row>
-    <row r="178" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:63">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -14503,7 +15066,7 @@
       <c r="BJ178" s="1"/>
       <c r="BK178" s="1"/>
     </row>
-    <row r="179" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:63">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -14568,7 +15131,7 @@
       <c r="BJ179" s="1"/>
       <c r="BK179" s="1"/>
     </row>
-    <row r="180" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:63">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -14633,7 +15196,7 @@
       <c r="BJ180" s="1"/>
       <c r="BK180" s="1"/>
     </row>
-    <row r="181" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:63">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -14698,7 +15261,7 @@
       <c r="BJ181" s="1"/>
       <c r="BK181" s="1"/>
     </row>
-    <row r="182" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:63">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -14763,7 +15326,7 @@
       <c r="BJ182" s="1"/>
       <c r="BK182" s="1"/>
     </row>
-    <row r="183" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:63">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -14828,7 +15391,7 @@
       <c r="BJ183" s="1"/>
       <c r="BK183" s="1"/>
     </row>
-    <row r="184" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:63">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -14893,7 +15456,7 @@
       <c r="BJ184" s="1"/>
       <c r="BK184" s="1"/>
     </row>
-    <row r="185" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:63">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -14958,7 +15521,7 @@
       <c r="BJ185" s="1"/>
       <c r="BK185" s="1"/>
     </row>
-    <row r="186" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:63">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -15023,7 +15586,7 @@
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
     </row>
-    <row r="187" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:63">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -15088,7 +15651,7 @@
       <c r="BJ187" s="1"/>
       <c r="BK187" s="1"/>
     </row>
-    <row r="188" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:63">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -15153,7 +15716,7 @@
       <c r="BJ188" s="1"/>
       <c r="BK188" s="1"/>
     </row>
-    <row r="189" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:63">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -15218,7 +15781,7 @@
       <c r="BJ189" s="1"/>
       <c r="BK189" s="1"/>
     </row>
-    <row r="190" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:63">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -15283,7 +15846,7 @@
       <c r="BJ190" s="1"/>
       <c r="BK190" s="1"/>
     </row>
-    <row r="191" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:63">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -15348,7 +15911,7 @@
       <c r="BJ191" s="1"/>
       <c r="BK191" s="1"/>
     </row>
-    <row r="192" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:63">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -15413,7 +15976,7 @@
       <c r="BJ192" s="1"/>
       <c r="BK192" s="1"/>
     </row>
-    <row r="193" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:63">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -15478,7 +16041,7 @@
       <c r="BJ193" s="1"/>
       <c r="BK193" s="1"/>
     </row>
-    <row r="194" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:63">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -15543,7 +16106,7 @@
       <c r="BJ194" s="1"/>
       <c r="BK194" s="1"/>
     </row>
-    <row r="195" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:63">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -15608,7 +16171,7 @@
       <c r="BJ195" s="1"/>
       <c r="BK195" s="1"/>
     </row>
-    <row r="196" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:63">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -15673,7 +16236,7 @@
       <c r="BJ196" s="1"/>
       <c r="BK196" s="1"/>
     </row>
-    <row r="197" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:63">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -15738,7 +16301,7 @@
       <c r="BJ197" s="1"/>
       <c r="BK197" s="1"/>
     </row>
-    <row r="198" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:63">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -15803,7 +16366,7 @@
       <c r="BJ198" s="1"/>
       <c r="BK198" s="1"/>
     </row>
-    <row r="199" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:63">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -15868,7 +16431,7 @@
       <c r="BJ199" s="1"/>
       <c r="BK199" s="1"/>
     </row>
-    <row r="200" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:63">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -15933,7 +16496,7 @@
       <c r="BJ200" s="1"/>
       <c r="BK200" s="1"/>
     </row>
-    <row r="201" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:63">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -15999,8 +16562,8 @@
       <c r="BK201" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>